--- a/biology/Médecine/Henryk_Skarżyński/Henryk_Skarżyński.xlsx
+++ b/biology/Médecine/Henryk_Skarżyński/Henryk_Skarżyński.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
+          <t>Henryk_Skarżyński</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henryk Skarzynski (né le 3 janvier 1954 à Rosochate Kościelne) est un médecin polonais, oto-rhino-laryngologiste, orthophoniste, fondateur et directeur de l'Institut de physiologie et de pathologie auditive de Varsovie et du Centre international de l'audition et de la parole de Kajetany.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
+          <t>Henryk_Skarżyński</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1992, Skarzynski est le premier médecin en Pologne et en Europe Centrale à avoir effectué une implantation cochléaire en redonnant la capacité auditive à une personne sourde.
-Il a fait le premier dans le monde l'opération pionnière de l'implantation cochléaire sur personne adulte avec surdité partielle (Traitement de surdité partielle - TSP) selon la méthode inventée par lui-même – ICSP  – ‘l'implantation cochléaire surdité partielle le 12 juillet 2002, et plus tard d'un enfant en 2004, donnant à ces patients une chance d'améliorer leur qualité de vie[1].
+Il a fait le premier dans le monde l'opération pionnière de l'implantation cochléaire sur personne adulte avec surdité partielle (Traitement de surdité partielle - TSP) selon la méthode inventée par lui-même – ICSP  – ‘l'implantation cochléaire surdité partielle le 12 juillet 2002, et plus tard d'un enfant en 2004, donnant à ces patients une chance d'améliorer leur qualité de vie.
 Henryk Skarzynski est l'auteur et coauteur de nombreux ouvrages scientifiques, il est superviseur des thèses de doctorat, membre d'associations scientifiques et étrangères.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
+          <t>Henryk_Skarżyński</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 – M.D. de la Faculté de médecine de l'université de médecine de Varsovie
 1983 - Candidat au doctorat
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
+          <t>Henryk_Skarżyński</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,89 +597,200 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Professionnelles
-1992 - Mise en œuvre du programme de traitement de surdité en Pologne à l'aide d'implants cochléaires[2].
+          <t>Professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1992 - Mise en œuvre du programme de traitement de surdité en Pologne à l'aide d'implants cochléaires.
 1998 - Mise en œuvre du programme de traitement des lésions de la surdité et du cancer en Pologne à  partir d'implants du tronc cérébral.
 1998 - Mise en place du programme de dépistage précoce de la perte auditive chez  les nouveau-nés et nourrissons en Pologne.
 1999 - Programme original mondial des tests de l'audition universelle, la parole et la vision sur l'Internet.
-2002 – Le 12 juillet, la première opération de l'implant cochléaire chez un patient adulte souffrant de surdité partielle[2].
+2002 – Le 12 juillet, la première opération de l'implant cochléaire chez un patient adulte souffrant de surdité partielle.
 2003 - La première opération de l’implant cochléaire pour l'oreille moyenne. Des dizaines de nouvelles procédures cliniques.
-2004 - Septembre - la première opération dans le monde d'un enfant affecté d’une perte auditive partielle[3].
-Scientifique
-2001 – Le développement de nouveaux moyens originaux de chirurgie reconstructive de l'oreille moyenne avec utilisation de matériaux alloplastiques (ionomères de verre)[4]
-2002 - Le développement de nouveaux outils de diagnostics - audiomètre Kuba Mikro[5]
-2002 - Le développement du ICSP (L’implantation cochléaire surdité partielle) - la méthode unique dans le monde de traitement de la surdité partielle (TSP - Traitement surdité partielle) qui permet de corriger le confort de l'audition à l'aide d'implants cochléaires qui maintient la présente audience[6].
-Médicale
-2000 - Le développement, fondé sur les tâches assignées par le ministre de la Santé, des programmes multimédias, originaux dans le monde pour la détection précoce des défauts de l'audition, de  la parole et de la vision[7].
-2004 - Le développement du programme de télémédecine : Clinique de Réadaptation à Domicile[8]
+2004 - Septembre - la première opération dans le monde d'un enfant affecté d’une perte auditive partielle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henryk_Skarżyński</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henryk_Skar%C5%BCy%C5%84ski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scientifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 – Le développement de nouveaux moyens originaux de chirurgie reconstructive de l'oreille moyenne avec utilisation de matériaux alloplastiques (ionomères de verre)
+2002 - Le développement de nouveaux outils de diagnostics - audiomètre Kuba Mikro
+2002 - Le développement du ICSP (L’implantation cochléaire surdité partielle) - la méthode unique dans le monde de traitement de la surdité partielle (TSP - Traitement surdité partielle) qui permet de corriger le confort de l'audition à l'aide d'implants cochléaires qui maintient la présente audience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henryk_Skarżyński</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henryk_Skar%C5%BCy%C5%84ski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2000 - Le développement, fondé sur les tâches assignées par le ministre de la Santé, des programmes multimédias, originaux dans le monde pour la détection précoce des défauts de l'audition, de  la parole et de la vision.
+2004 - Le développement du programme de télémédecine : Clinique de Réadaptation à Domicile
 2005 - Le développement du nouveau dispositif pour le dépistage universel de la surdité - Audiomètre S
 2005 - La première adjonction de l'implant et prothèse auditive dans une oreille
 2007 - Telefitting - le développement du premier système permanent dans le monde de surveillance à distance sur le processus de travail et la capacité à mettre l'implant chez les patients partout où ils sont.
-2009 - Le développement du premier appareil au monde, « La Plate-forme de l’Analyse de la Sensation» qui évalue les dommages de l'ouïe, la parole et la vision a l’aide de dépistage[9]
-Organisationnelle
-2008 - La première implantation auditive bilatérale au niveau du tronc cérébral[10]
-1993 - Fondateur de Centre- Médical- Diagnostic de Réadaptation pour les personnes sourdes et dur d'oreille "Centre Cochléaire» - le deuxième établissement en Europe[11]
-1996 - Fondateur et directeur de l'Institut de physiologie et de pathologie de l'audition à Varsovie[12]
-2003 - Créateur et fondateur du Centre international de l'audition et de la parole à Kajetany[8]
-2010 - Organisateur du Centre mondial de l'audition à Kajetany[13]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+2009 - Le développement du premier appareil au monde, « La Plate-forme de l’Analyse de la Sensation» qui évalue les dommages de l'ouïe, la parole et la vision a l’aide de dépistage</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henryk_Skarżyński</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henryk_Skar%C5%BCy%C5%84ski</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Organisationnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008 - La première implantation auditive bilatérale au niveau du tronc cérébral
+1993 - Fondateur de Centre- Médical- Diagnostic de Réadaptation pour les personnes sourdes et dur d'oreille "Centre Cochléaire» - le deuxième établissement en Europe
+1996 - Fondateur et directeur de l'Institut de physiologie et de pathologie de l'audition à Varsovie
+2003 - Créateur et fondateur du Centre international de l'audition et de la parole à Kajetany
+2010 - Organisateur du Centre mondial de l'audition à Kajetany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henryk_Skarżyński</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henryk_Skar%C5%BCy%C5%84ski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de l'ordre Polonia Restituta (2012)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Henryk_Skar%C5%BCy%C5%84ski</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henryk_Skarżyński</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henryk_Skar%C5%BCy%C5%84ski</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix, distinctions et honneurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">1983 – 2000 - Recteur de l'Académie de médecine à Varsovie (quatre fois)
 1983 – Prix scientifique du Conseil de la Société polonaise d'ORL chirurgiens de la tête et du cou sous le nom du prof. John Miodońskiego
@@ -706,7 +833,7 @@
 - Cinquième sur la liste des cent personnes les plus influentes en matière de santé publique en 2010
 - Médaille d'honneur décernée par Mikhaïl Saakachvili (Géorgie)
 - Médaille sous le nom de M. Titus Chalubinski
-- Prix de Homo Ecce[14],[15]
+- Prix de Homo Ecce,
 </t>
         </is>
       </c>
